--- a/biology/Zoologie/Conus_lecourtorum/Conus_lecourtorum.xlsx
+++ b/biology/Zoologie/Conus_lecourtorum/Conus_lecourtorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus lecourtorum est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taille de la coquille atteint 16 mm.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce marine dans l'océan Indien au large de Maurice.
 </t>
@@ -576,10 +592,50 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus lecourtorum a été décrite pour la première fois en 2011 par le malacologiste allemand Felix Lorenz (d)[1]Georges Richard dans « Schriften zur Malakozoologie »[2],[3].
-Synonymes
-Conus (Virroconus) lecourtorum (Lorenz, 2011) · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus lecourtorum a été décrite pour la première fois en 2011 par le malacologiste allemand Felix Lorenz (d)Georges Richard dans « Schriften zur Malakozoologie »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conus_lecourtorum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_lecourtorum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Conus (Virroconus) lecourtorum (Lorenz, 2011) · appellation alternative
 Miliariconus lecourtorum (Lorenz, 2011) · non accepté
 Rolaniconus lecourtorum Lorenz, 2011 · non accepté</t>
         </is>
